--- a/firmware/modules/common/PgpCardG3_RegisterMap.xlsx
+++ b/firmware/modules/common/PgpCardG3_RegisterMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="501">
   <si>
     <t>LLR</t>
   </si>
@@ -279,27 +279,6 @@
     <t>26 downto 0</t>
   </si>
   <si>
-    <t xml:space="preserve">               BIT[31:19]  = Reserverd for future use</t>
-  </si>
-  <si>
-    <t>12 downto 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               BIT18  = EVR PLL Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               BIT17  = EVR Module Reset Flag </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               BIT16  = EVR Module Enable Flag </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               BIT[7:0]  = EVR Run Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               BIT[15:8]  = EVR Accept Code</t>
-  </si>
-  <si>
     <t>EvrStat[2]</t>
   </si>
   <si>
@@ -471,9 +450,6 @@
     <t xml:space="preserve">               BIT[15:8]  = Remote Link Ready</t>
   </si>
   <si>
-    <t>0x1FC:0x088</t>
-  </si>
-  <si>
     <t>0x21C</t>
   </si>
   <si>
@@ -1240,6 +1216,309 @@
   </si>
   <si>
     <t xml:space="preserve">               BIT1  = Reserverd for future use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               BIT0  = EVR Module Enable Flag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               BIT1  = EVR Module Reset Flag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               BIT2  = EVR PLL Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               BIT[31:3]  = Reserverd for future use</t>
+  </si>
+  <si>
+    <t>0x17C:0x088</t>
+  </si>
+  <si>
+    <t>0x180</t>
+  </si>
+  <si>
+    <t>0x184</t>
+  </si>
+  <si>
+    <t>0x188</t>
+  </si>
+  <si>
+    <t>0x18C</t>
+  </si>
+  <si>
+    <t>0x190</t>
+  </si>
+  <si>
+    <t>0x194</t>
+  </si>
+  <si>
+    <t>0x198</t>
+  </si>
+  <si>
+    <t>0x1FC</t>
+  </si>
+  <si>
+    <t>0x19C</t>
+  </si>
+  <si>
+    <t>0x1A0</t>
+  </si>
+  <si>
+    <t>0x1A4</t>
+  </si>
+  <si>
+    <t>0x1A8</t>
+  </si>
+  <si>
+    <t>0x1AC</t>
+  </si>
+  <si>
+    <t>0x1B0</t>
+  </si>
+  <si>
+    <t>0x1B4</t>
+  </si>
+  <si>
+    <t>0x1B8</t>
+  </si>
+  <si>
+    <t>0x1BC</t>
+  </si>
+  <si>
+    <t>0x1C0</t>
+  </si>
+  <si>
+    <t>0x1C4</t>
+  </si>
+  <si>
+    <t>0x1C8</t>
+  </si>
+  <si>
+    <t>0x1CC</t>
+  </si>
+  <si>
+    <t>0x1D0</t>
+  </si>
+  <si>
+    <t>0x1D4</t>
+  </si>
+  <si>
+    <t>0x1D8</t>
+  </si>
+  <si>
+    <t>0x1DC</t>
+  </si>
+  <si>
+    <t>0x1E0</t>
+  </si>
+  <si>
+    <t>0x1E4</t>
+  </si>
+  <si>
+    <t>0x1E8</t>
+  </si>
+  <si>
+    <t>0x1EC</t>
+  </si>
+  <si>
+    <t>0x1F0</t>
+  </si>
+  <si>
+    <t>0x1F4</t>
+  </si>
+  <si>
+    <t>0x1F8</t>
+  </si>
+  <si>
+    <t>runCode[0]</t>
+  </si>
+  <si>
+    <t>runCode[1]</t>
+  </si>
+  <si>
+    <t>runCode[2]</t>
+  </si>
+  <si>
+    <t>runCode[3]</t>
+  </si>
+  <si>
+    <t>runCode[4]</t>
+  </si>
+  <si>
+    <t>runCode[5]</t>
+  </si>
+  <si>
+    <t>runCode[6]</t>
+  </si>
+  <si>
+    <t>runCode[7]</t>
+  </si>
+  <si>
+    <t>acceptCode[0]</t>
+  </si>
+  <si>
+    <t>acceptCode[1]</t>
+  </si>
+  <si>
+    <t>acceptCode[2]</t>
+  </si>
+  <si>
+    <t>acceptCode[3]</t>
+  </si>
+  <si>
+    <t>acceptCode[4]</t>
+  </si>
+  <si>
+    <t>acceptCode[5]</t>
+  </si>
+  <si>
+    <t>acceptCode[6]</t>
+  </si>
+  <si>
+    <t>acceptCode[7]</t>
+  </si>
+  <si>
+    <t>runDelay[0]</t>
+  </si>
+  <si>
+    <t>runDelay[1]</t>
+  </si>
+  <si>
+    <t>runDelay[2]</t>
+  </si>
+  <si>
+    <t>runDelay[3]</t>
+  </si>
+  <si>
+    <t>runDelay[4]</t>
+  </si>
+  <si>
+    <t>runDelay[5]</t>
+  </si>
+  <si>
+    <t>runDelay[6]</t>
+  </si>
+  <si>
+    <t>runDelay[7]</t>
+  </si>
+  <si>
+    <t>acceptDelay[0]</t>
+  </si>
+  <si>
+    <t>acceptDelay[1]</t>
+  </si>
+  <si>
+    <t>acceptDelay[2]</t>
+  </si>
+  <si>
+    <t>acceptDelay[3]</t>
+  </si>
+  <si>
+    <t>acceptDelay[4]</t>
+  </si>
+  <si>
+    <t>acceptDelay[5]</t>
+  </si>
+  <si>
+    <t>acceptDelay[6]</t>
+  </si>
+  <si>
+    <t>acceptDelay[7]</t>
+  </si>
+  <si>
+    <t>EVR RUN Delay, PGP.Lane0</t>
+  </si>
+  <si>
+    <t>EVR RUN Delay, PGP.Lane1</t>
+  </si>
+  <si>
+    <t>EVR RUN Delay, PGP.Lane2</t>
+  </si>
+  <si>
+    <t>EVR RUN Delay, PGP.Lane3</t>
+  </si>
+  <si>
+    <t>EVR RUN Delay, PGP.Lane4</t>
+  </si>
+  <si>
+    <t>EVR RUN Delay, PGP.Lane5</t>
+  </si>
+  <si>
+    <t>EVR RUN Delay, PGP.Lane6</t>
+  </si>
+  <si>
+    <t>EVR RUN Delay, PGP.Lane7</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Delay, PGP.Lane0</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Delay, PGP.Lane1</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Delay, PGP.Lane2</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Delay, PGP.Lane3</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Delay, PGP.Lane4</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Delay, PGP.Lane5</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Delay, PGP.Lane6</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Delay, PGP.Lane7</t>
+  </si>
+  <si>
+    <t>EVR RUN Trigger OP-Code, PGP.Lane0</t>
+  </si>
+  <si>
+    <t>EVR RUN Trigger OP-Code, PGP.Lane1</t>
+  </si>
+  <si>
+    <t>EVR RUN Trigger OP-Code, PGP.Lane2</t>
+  </si>
+  <si>
+    <t>EVR RUN Trigger OP-Code, PGP.Lane3</t>
+  </si>
+  <si>
+    <t>EVR RUN Trigger OP-Code, PGP.Lane4</t>
+  </si>
+  <si>
+    <t>EVR RUN Trigger OP-Code, PGP.Lane5</t>
+  </si>
+  <si>
+    <t>EVR RUN Trigger OP-Code, PGP.Lane6</t>
+  </si>
+  <si>
+    <t>EVR RUN Trigger OP-Code, PGP.Lane7</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Trigger OP-Code, PGP.Lane0</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Trigger OP-Code, PGP.Lane1</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Trigger OP-Code, PGP.Lane2</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Trigger OP-Code, PGP.Lane3</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Trigger OP-Code, PGP.Lane4</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Trigger OP-Code, PGP.Lane5</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Trigger OP-Code, PGP.Lane6</t>
+  </si>
+  <si>
+    <t>EVR ACCEPT Trigger OP-Code, PGP.Lane7</t>
   </si>
 </sst>
 </file>
@@ -1748,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F340"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="I333" sqref="I333"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>42037</v>
+        <v>42087</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,13 +2210,13 @@
         <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,13 +2284,13 @@
         <v>41</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,7 +2694,7 @@
         <v>83</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>6</v>
@@ -2489,7 +2768,7 @@
         <v>84</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>6</v>
@@ -2507,13 +2786,13 @@
         <v>84</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>87</v>
+        <v>403</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>88</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,7 +2804,7 @@
         <v>84</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>89</v>
+        <v>402</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>6</v>
@@ -2543,7 +2822,7 @@
         <v>84</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>90</v>
+        <v>401</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>6</v>
@@ -2561,7 +2840,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>91</v>
+        <v>400</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>6</v>
@@ -2571,59 +2850,59 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>15</v>
+      <c r="C47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>15</v>
+      <c r="C48" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>10</v>
+      <c r="D49" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,7 +2914,7 @@
         <v>79</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>6</v>
@@ -2653,7 +2932,7 @@
         <v>79</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>6</v>
@@ -2671,7 +2950,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>6</v>
@@ -2689,7 +2968,7 @@
         <v>79</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>6</v>
@@ -2707,7 +2986,7 @@
         <v>79</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>6</v>
@@ -2725,7 +3004,7 @@
         <v>79</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>6</v>
@@ -2743,7 +3022,7 @@
         <v>79</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>6</v>
@@ -2761,7 +3040,7 @@
         <v>79</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>6</v>
@@ -2779,7 +3058,7 @@
         <v>79</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>6</v>
@@ -2797,7 +3076,7 @@
         <v>79</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>6</v>
@@ -2815,7 +3094,7 @@
         <v>79</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>6</v>
@@ -2833,7 +3112,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>6</v>
@@ -2851,7 +3130,7 @@
         <v>79</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>6</v>
@@ -2869,7 +3148,7 @@
         <v>79</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>6</v>
@@ -2887,7 +3166,7 @@
         <v>79</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>6</v>
@@ -2905,7 +3184,7 @@
         <v>79</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>6</v>
@@ -2923,7 +3202,7 @@
         <v>79</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>6</v>
@@ -2941,7 +3220,7 @@
         <v>79</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>6</v>
@@ -2959,7 +3238,7 @@
         <v>79</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>6</v>
@@ -2977,7 +3256,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>6</v>
@@ -2995,7 +3274,7 @@
         <v>79</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>6</v>
@@ -3013,7 +3292,7 @@
         <v>79</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>6</v>
@@ -3031,7 +3310,7 @@
         <v>79</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>6</v>
@@ -3049,7 +3328,7 @@
         <v>79</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>6</v>
@@ -3067,7 +3346,7 @@
         <v>79</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>6</v>
@@ -3085,7 +3364,7 @@
         <v>79</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>6</v>
@@ -3103,7 +3382,7 @@
         <v>79</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>6</v>
@@ -3113,7 +3392,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="12" t="s">
         <v>11</v>
       </c>
@@ -3121,7 +3400,7 @@
         <v>79</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>6</v>
@@ -3131,7 +3410,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="12" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3418,7 @@
         <v>79</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>6</v>
@@ -3149,97 +3428,97 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="13" t="s">
+      <c r="D79" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12" t="s">
+      <c r="A80" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="13" t="s">
+      <c r="C81" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="14" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3248,10 +3527,10 @@
         <v>16</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>6</v>
@@ -3266,10 +3545,10 @@
         <v>16</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>6</v>
@@ -3280,14 +3559,14 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
-      <c r="B86" s="13" t="s">
-        <v>16</v>
+      <c r="B86" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>6</v>
@@ -3298,14 +3577,14 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
-      <c r="B87" s="13" t="s">
-        <v>16</v>
+      <c r="B87" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>6</v>
@@ -3320,10 +3599,10 @@
         <v>11</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>6</v>
@@ -3333,15 +3612,15 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>6</v>
@@ -3351,21 +3630,21 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3374,742 +3653,800 @@
         <v>11</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12" t="s">
+      <c r="A92" s="18"/>
+      <c r="B92" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="13" t="s">
+      <c r="C92" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12" t="s">
+      <c r="A93" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="13" t="s">
+      <c r="C98" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="15" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="14" t="s">
+      <c r="C99" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>16</v>
+        <v>439</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>153</v>
+        <v>407</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>17</v>
+        <v>487</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>17</v>
+      <c r="A101" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>17</v>
+      <c r="A102" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>17</v>
+      <c r="A103" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>17</v>
+      <c r="A104" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>17</v>
+      <c r="A105" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>17</v>
+      <c r="A106" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>17</v>
+      <c r="A107" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="B108" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>159</v>
+      <c r="A108" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>495</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F108" s="14" t="s">
-        <v>17</v>
+      <c r="F108" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>16</v>
+        <v>448</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>17</v>
+        <v>496</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>17</v>
+      <c r="A110" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>17</v>
+      <c r="A111" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>17</v>
+      <c r="A112" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>17</v>
+      <c r="A113" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>17</v>
+      <c r="A114" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>17</v>
+      <c r="A115" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>17</v>
+      <c r="A116" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>185</v>
+      <c r="A117" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="E117" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F117" s="14" t="s">
-        <v>17</v>
+      <c r="F117" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>16</v>
+        <v>457</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>156</v>
+        <v>426</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>17</v>
+        <v>473</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>17</v>
+      <c r="A119" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>17</v>
+      <c r="A120" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>17</v>
+      <c r="A121" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>17</v>
+      <c r="A122" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>17</v>
+      <c r="A123" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>17</v>
+      <c r="A124" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>17</v>
+      <c r="A125" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="18"/>
-      <c r="B126" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>194</v>
+      <c r="A126" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>481</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F126" s="14" t="s">
-        <v>17</v>
+      <c r="F126" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>16</v>
+        <v>466</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>162</v>
+        <v>435</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
-      <c r="B129" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E131" s="13" t="s">
         <v>6</v>
@@ -4124,10 +4461,10 @@
         <v>16</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>6</v>
@@ -4142,10 +4479,10 @@
         <v>16</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>6</v>
@@ -4160,10 +4497,10 @@
         <v>16</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>6</v>
@@ -4173,53 +4510,51 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
-      <c r="B135" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" s="14" t="s">
+      <c r="A135" s="11"/>
+      <c r="B135" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" s="9" t="s">
+      <c r="A136" s="11"/>
+      <c r="B136" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E137" s="13" t="s">
         <v>6</v>
@@ -4229,51 +4564,53 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" s="13" t="s">
+      <c r="A138" s="18"/>
+      <c r="B138" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="13" t="s">
+      <c r="A139" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>6</v>
@@ -4288,10 +4625,10 @@
         <v>16</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="E141" s="13" t="s">
         <v>6</v>
@@ -4306,10 +4643,10 @@
         <v>16</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>6</v>
@@ -4324,10 +4661,10 @@
         <v>16</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>6</v>
@@ -4337,53 +4674,51 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
-      <c r="B144" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D144" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" s="14" t="s">
+      <c r="A144" s="11"/>
+      <c r="B144" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F145" s="9" t="s">
+      <c r="A145" s="11"/>
+      <c r="B145" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="E146" s="13" t="s">
         <v>6</v>
@@ -4393,51 +4728,53 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F147" s="13" t="s">
+      <c r="A147" s="18"/>
+      <c r="B147" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
-      <c r="B148" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" s="13" t="s">
+      <c r="A148" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+      <c r="A149" s="13"/>
       <c r="B149" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>6</v>
@@ -4452,10 +4789,10 @@
         <v>16</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="E150" s="13" t="s">
         <v>6</v>
@@ -4470,10 +4807,10 @@
         <v>16</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="E151" s="13" t="s">
         <v>6</v>
@@ -4488,10 +4825,10 @@
         <v>16</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="E152" s="13" t="s">
         <v>6</v>
@@ -4501,53 +4838,51 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
-      <c r="B153" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E153" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F153" s="14" t="s">
+      <c r="A153" s="11"/>
+      <c r="B153" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" s="9" t="s">
+      <c r="A154" s="11"/>
+      <c r="B154" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="E155" s="13" t="s">
         <v>6</v>
@@ -4557,43 +4892,45 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
-      <c r="B156" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C156" s="13" t="s">
+      <c r="A156" s="18"/>
+      <c r="B156" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D156" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E156" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" s="13" t="s">
+      <c r="D157" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E157" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="13" t="s">
         <v>16</v>
       </c>
@@ -4601,7 +4938,7 @@
         <v>154</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E158" s="13" t="s">
         <v>6</v>
@@ -4619,7 +4956,7 @@
         <v>154</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>6</v>
@@ -4637,7 +4974,7 @@
         <v>154</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="E160" s="13" t="s">
         <v>6</v>
@@ -4655,7 +4992,7 @@
         <v>154</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="E161" s="13" t="s">
         <v>6</v>
@@ -4665,53 +5002,51 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="18"/>
-      <c r="B162" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C162" s="14" t="s">
+      <c r="A162" s="11"/>
+      <c r="B162" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D162" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" s="14" t="s">
+      <c r="D162" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" s="9" t="s">
+      <c r="A163" s="11"/>
+      <c r="B163" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
+      <c r="A164" s="11"/>
       <c r="B164" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>6</v>
@@ -4721,51 +5056,53 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
-      <c r="B165" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F165" s="13" t="s">
+      <c r="A165" s="18"/>
+      <c r="B165" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
-      <c r="B166" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F166" s="13" t="s">
+      <c r="A166" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
+      <c r="A167" s="13"/>
       <c r="B167" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="E167" s="13" t="s">
         <v>6</v>
@@ -4780,10 +5117,10 @@
         <v>16</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E168" s="13" t="s">
         <v>6</v>
@@ -4798,10 +5135,10 @@
         <v>16</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E169" s="13" t="s">
         <v>6</v>
@@ -4816,10 +5153,10 @@
         <v>16</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E170" s="13" t="s">
         <v>6</v>
@@ -4829,638 +5166,624 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="18"/>
-      <c r="B171" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="E171" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F171" s="14" t="s">
+      <c r="A171" s="11"/>
+      <c r="B171" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D172" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>10</v>
+      <c r="A172" s="11"/>
+      <c r="B172" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>10</v>
+      <c r="A173" s="11"/>
+      <c r="B173" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="9" t="s">
-        <v>10</v>
+      <c r="A174" s="18"/>
+      <c r="B174" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
-      <c r="B175" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>249</v>
+      <c r="A175" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="9" t="s">
-        <v>10</v>
+      <c r="A177" s="11"/>
+      <c r="B177" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
+      <c r="A178" s="11"/>
       <c r="B178" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
+      <c r="A179" s="11"/>
       <c r="B179" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>10</v>
+      <c r="A180" s="11"/>
+      <c r="B180" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
+      <c r="A181" s="11"/>
       <c r="B181" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
+      <c r="A182" s="11"/>
       <c r="B182" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F183" s="9" t="s">
-        <v>10</v>
+      <c r="A183" s="18"/>
+      <c r="B183" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
-      <c r="B184" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E184" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" s="13" t="s">
-        <v>249</v>
+      <c r="A184" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>10</v>
+      <c r="A186" s="11"/>
+      <c r="B186" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
+      <c r="A187" s="11"/>
       <c r="B187" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
+      <c r="A188" s="11"/>
       <c r="B188" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>10</v>
+      <c r="A189" s="11"/>
+      <c r="B189" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
+      <c r="A190" s="11"/>
       <c r="B190" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
+      <c r="A191" s="11"/>
       <c r="B191" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E192" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="9" t="s">
-        <v>10</v>
+      <c r="A192" s="18"/>
+      <c r="B192" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
-      <c r="B193" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="13" t="s">
-        <v>249</v>
+      <c r="A193" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B195" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" s="9" t="s">
+      <c r="A195" s="11"/>
+      <c r="B195" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="11"/>
+      <c r="B196" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="11"/>
+      <c r="B197" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="11"/>
+      <c r="B198" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="11"/>
+      <c r="B199" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="18"/>
+      <c r="B201" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
-      <c r="B197" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D198" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F198" s="7" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B199" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E201" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F201" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E202" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F202" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="D203" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E203" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F203" s="14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F204" s="9" t="s">
         <v>10</v>
@@ -5469,274 +5792,278 @@
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
-      <c r="B207" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D207" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E207" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F207" s="13" t="s">
-        <v>250</v>
+      <c r="A207" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
-      <c r="B208" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C208" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D208" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E208" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F208" s="14" t="s">
+      <c r="A208" s="13"/>
+      <c r="B208" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="13" t="s">
         <v>251</v>
       </c>
+      <c r="D208" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F209" s="9" t="s">
+      <c r="A209" s="13"/>
+      <c r="B209" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
-      <c r="B210" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F210" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
       <c r="B211" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
-      <c r="B213" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C213" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D213" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E213" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>251</v>
+      <c r="A213" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F214" s="9" t="s">
-        <v>10</v>
+      <c r="A214" s="13"/>
+      <c r="B214" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
-      <c r="B216" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E216" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F216" s="13" t="s">
-        <v>13</v>
+      <c r="A216" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
-      <c r="B218" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C218" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D218" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E218" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F218" s="14" t="s">
-        <v>251</v>
+      <c r="A218" s="13"/>
+      <c r="B218" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>10</v>
@@ -5745,179 +6072,183 @@
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
       <c r="B220" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
-      <c r="B222" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E222" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F222" s="13" t="s">
+      <c r="A222" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="13"/>
+      <c r="B223" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+      <c r="B224" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="14"/>
-      <c r="B223" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D223" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E223" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F223" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F224" s="9" t="s">
+      <c r="B225" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="13"/>
-      <c r="B225" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F225" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="13"/>
       <c r="B226" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F226" s="13" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="13"/>
       <c r="B227" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="14"/>
-      <c r="B228" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C228" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="D228" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E228" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F228" s="14" t="s">
-        <v>251</v>
+      <c r="A228" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D228" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>6</v>
@@ -5932,10 +6263,10 @@
         <v>16</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E230" s="13" t="s">
         <v>6</v>
@@ -5950,10 +6281,10 @@
         <v>16</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E231" s="13" t="s">
         <v>6</v>
@@ -5968,16 +6299,16 @@
         <v>16</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E232" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F232" s="13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5986,30 +6317,30 @@
         <v>16</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E233" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>6</v>
@@ -6024,10 +6355,10 @@
         <v>16</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E235" s="13" t="s">
         <v>6</v>
@@ -6042,10 +6373,10 @@
         <v>16</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E236" s="13" t="s">
         <v>6</v>
@@ -6060,16 +6391,16 @@
         <v>16</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E237" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6078,68 +6409,66 @@
         <v>16</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E238" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D239" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E239" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" s="7" t="s">
+      <c r="A239" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E239" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B240" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>10</v>
+      <c r="A240" s="13"/>
+      <c r="B240" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
-      <c r="B241" s="12" t="s">
-        <v>11</v>
+      <c r="A241" s="13"/>
+      <c r="B241" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="E241" s="13" t="s">
         <v>6</v>
@@ -6149,79 +6478,77 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
+      <c r="A242" s="13"/>
       <c r="B242" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E242" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F242" s="13" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="18"/>
-      <c r="B243" s="15" t="s">
-        <v>11</v>
+      <c r="A243" s="14"/>
+      <c r="B243" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E243" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D244" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="E244" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F244" s="7" t="s">
+      <c r="A244" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E244" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="E245" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245" s="9" t="s">
-        <v>10</v>
+      <c r="A245" s="13"/>
+      <c r="B245" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6230,10 +6557,10 @@
         <v>16</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="E246" s="13" t="s">
         <v>6</v>
@@ -6248,52 +6575,54 @@
         <v>16</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="E247" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="13"/>
-      <c r="B248" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D248" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E248" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>13</v>
+      <c r="A248" s="14"/>
+      <c r="B248" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E248" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="13"/>
-      <c r="B249" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D249" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E249" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F249" s="13" t="s">
-        <v>13</v>
+      <c r="A249" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,10 +6631,10 @@
         <v>16</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="E250" s="13" t="s">
         <v>6</v>
@@ -6320,10 +6649,10 @@
         <v>16</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="E251" s="13" t="s">
         <v>6</v>
@@ -6338,48 +6667,48 @@
         <v>16</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="E252" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F252" s="13" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="18"/>
+      <c r="A253" s="14"/>
       <c r="B253" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="E253" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>16</v>
+      <c r="A254" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D254" s="21" t="s">
-        <v>323</v>
+        <v>285</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>6</v>
@@ -6389,107 +6718,107 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="11"/>
+      <c r="A255" s="13"/>
       <c r="B255" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E255" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F255" s="13" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="11"/>
+      <c r="A256" s="13"/>
       <c r="B256" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="E256" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F256" s="13" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="18"/>
-      <c r="B257" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C257" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D257" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E257" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" s="14" t="s">
-        <v>302</v>
+      <c r="A257" s="13"/>
+      <c r="B257" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D258" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E258" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F258" s="9" t="s">
+      <c r="A258" s="14"/>
+      <c r="B258" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D258" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E258" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="11"/>
-      <c r="B259" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D259" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="E259" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="11"/>
+      <c r="A260" s="13"/>
       <c r="B260" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="E260" s="13" t="s">
         <v>6</v>
@@ -6499,785 +6828,781 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="18"/>
-      <c r="B261" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C261" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D261" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="E261" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F261" s="14" t="s">
+      <c r="A261" s="13"/>
+      <c r="B261" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
+      <c r="A262" s="13"/>
+      <c r="B262" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="14"/>
+      <c r="B263" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D263" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E263" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+      <c r="B265" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="13"/>
+      <c r="B266" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="13"/>
+      <c r="B267" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="14"/>
+      <c r="B268" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E268" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B262" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D262" s="19" t="s">
+      <c r="B269" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D269" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E262" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F262" s="7" t="s">
+      <c r="E269" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D263" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E263" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F263" s="9" t="s">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E270" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F270" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="11"/>
-      <c r="B264" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E264" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F264" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
-      <c r="B265" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D265" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E265" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F265" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="18"/>
-      <c r="B266" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C266" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E266" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F266" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D267" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="E267" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F267" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="11"/>
-      <c r="B268" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C268" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D268" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E268" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="11"/>
-      <c r="B269" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D269" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E269" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F269" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="18"/>
-      <c r="B270" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E270" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C271" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D271" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="E271" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F271" s="9" t="s">
-        <v>10</v>
+      <c r="A271" s="11"/>
+      <c r="B271" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="11"/>
       <c r="B272" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F272" s="13" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="11"/>
-      <c r="B273" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="D273" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E273" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F273" s="13" t="s">
-        <v>72</v>
+      <c r="A273" s="18"/>
+      <c r="B273" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E273" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="18"/>
-      <c r="B274" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C274" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E274" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F274" s="14" t="s">
-        <v>302</v>
+      <c r="A274" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D274" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D275" s="21" t="s">
-        <v>342</v>
+        <v>302</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F275" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="11"/>
+      <c r="A276" s="13"/>
       <c r="B276" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F276" s="13" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="11"/>
+      <c r="A277" s="13"/>
       <c r="B277" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F277" s="13" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="18"/>
-      <c r="B278" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C278" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D278" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E278" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F278" s="14" t="s">
+      <c r="A278" s="13"/>
+      <c r="B278" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="13" t="s">
         <v>302</v>
       </c>
+      <c r="D278" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C279" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D279" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="E279" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F279" s="9" t="s">
+      <c r="A279" s="13"/>
+      <c r="B279" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D279" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="13"/>
+      <c r="B280" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D280" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F280" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="13"/>
+      <c r="B281" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D281" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="13"/>
+      <c r="B282" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D282" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F282" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="18"/>
+      <c r="B283" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C283" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E283" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F283" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D284" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="11"/>
-      <c r="B280" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D280" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E280" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="11"/>
-      <c r="B281" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C281" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D281" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E281" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F281" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="18"/>
-      <c r="B282" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C282" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E282" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F282" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D283" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="E283" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F283" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
-      <c r="B284" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D284" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E284" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F284" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="11"/>
       <c r="B285" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F285" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="11"/>
+      <c r="B286" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D286" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F286" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="18"/>
-      <c r="B286" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C286" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D286" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E286" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F286" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D287" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="E287" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F287" s="9" t="s">
+      <c r="A287" s="18"/>
+      <c r="B287" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E287" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F288" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
-      <c r="B288" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D288" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E288" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F288" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="11"/>
       <c r="B289" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F289" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="11"/>
+      <c r="B290" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="18"/>
+      <c r="B291" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C291" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D291" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="E291" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F291" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D292" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B293" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C289" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D289" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E289" s="13" t="s">
+      <c r="C293" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D293" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E293" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F289" s="13" t="s">
+      <c r="F293" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="11"/>
+      <c r="B294" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E294" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="11"/>
+      <c r="B295" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E295" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="18"/>
-      <c r="B290" s="14" t="s">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="18"/>
+      <c r="B296" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C290" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="D290" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E290" s="14" t="s">
+      <c r="C296" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E296" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F290" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="B291" s="9" t="s">
+      <c r="F296" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B297" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C291" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D291" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="E291" s="9" t="s">
+      <c r="C297" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E297" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F291" s="9" t="s">
+      <c r="F297" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
-      <c r="B292" s="13" t="s">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="11"/>
+      <c r="B298" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C292" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D292" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E292" s="13" t="s">
+      <c r="C298" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E298" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F292" s="13" t="s">
+      <c r="F298" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="11"/>
-      <c r="B293" s="13" t="s">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="11"/>
+      <c r="B299" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C293" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D293" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E293" s="13" t="s">
+      <c r="C299" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E299" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F293" s="13" t="s">
+      <c r="F299" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="18"/>
-      <c r="B294" s="14" t="s">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="18"/>
+      <c r="B300" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C294" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E294" s="14" t="s">
+      <c r="C300" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E300" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F294" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D295" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E295" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F295" s="7" t="s">
+      <c r="F300" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D301" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="B296" s="9" t="s">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="11"/>
+      <c r="B302" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C296" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D296" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="E296" s="9" t="s">
+      <c r="C302" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E302" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F296" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="11"/>
-      <c r="B297" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C297" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="D297" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E297" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F297" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="18"/>
-      <c r="B298" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C298" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="D298" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E298" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F298" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D299" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E299" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F299" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="11"/>
-      <c r="B300" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="D300" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E300" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F300" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="18"/>
-      <c r="B301" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C301" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E301" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F301" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C302" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D302" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="E302" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F302" s="9" t="s">
-        <v>10</v>
+      <c r="F302" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -7286,16 +7611,16 @@
         <v>14</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="E303" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F303" s="13" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -7304,30 +7629,30 @@
         <v>14</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D304" s="18" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="E304" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F304" s="14" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="E305" s="9" t="s">
         <v>12</v>
@@ -7342,166 +7667,164 @@
         <v>14</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="E306" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F306" s="13" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="18"/>
-      <c r="B307" s="14" t="s">
+      <c r="A307" s="11"/>
+      <c r="B307" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C307" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E307" s="14" t="s">
+      <c r="C307" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E307" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F307" s="14" t="s">
-        <v>33</v>
+      <c r="F307" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="B308" s="9" t="s">
+      <c r="A308" s="18"/>
+      <c r="B308" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C308" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D308" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="E308" s="9" t="s">
+      <c r="C308" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E308" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F308" s="9" t="s">
+      <c r="F308" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D309" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E309" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F309" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="11"/>
-      <c r="B309" s="13" t="s">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="11"/>
+      <c r="B310" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C309" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D309" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E309" s="13" t="s">
+      <c r="C310" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E310" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F309" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="18"/>
-      <c r="B310" s="14" t="s">
+      <c r="F310" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="11"/>
+      <c r="B311" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C310" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E310" s="14" t="s">
+      <c r="C311" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E311" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F310" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="B311" s="9" t="s">
+      <c r="F311" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="18"/>
+      <c r="B312" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C311" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D311" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E311" s="9" t="s">
+      <c r="C312" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D312" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E312" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F311" s="9" t="s">
+      <c r="F312" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F313" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="11"/>
-      <c r="B312" s="13" t="s">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="11"/>
+      <c r="B314" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C312" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D312" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E312" s="13" t="s">
+      <c r="C314" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E314" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F312" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="18"/>
-      <c r="B313" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C313" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E313" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F313" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B314" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C314" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D314" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="E314" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F314" s="9" t="s">
-        <v>10</v>
+      <c r="F314" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -7510,16 +7833,16 @@
         <v>14</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="E315" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F315" s="13" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7528,30 +7851,30 @@
         <v>14</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D316" s="18" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="E316" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="E317" s="9" t="s">
         <v>12</v>
@@ -7566,413 +7889,973 @@
         <v>14</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="E318" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F318" s="13" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="18"/>
-      <c r="B319" s="14" t="s">
+      <c r="A319" s="11"/>
+      <c r="B319" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C319" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D319" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E319" s="14" t="s">
+      <c r="C319" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E319" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F319" s="14" t="s">
-        <v>33</v>
+      <c r="F319" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B320" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D320" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E320" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F320" s="7" t="s">
-        <v>10</v>
+      <c r="A320" s="18"/>
+      <c r="B320" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C320" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D320" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E320" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="9" t="s">
-        <v>385</v>
+      <c r="A321" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="D321" s="22" t="s">
-        <v>387</v>
+        <v>349</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F321" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="13"/>
+      <c r="A322" s="11"/>
       <c r="B322" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="E322" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F322" s="13" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="13"/>
+      <c r="A323" s="11"/>
       <c r="B323" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="E323" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F323" s="13" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="11"/>
-      <c r="B324" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C324" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F324" s="13" t="s">
-        <v>13</v>
+      <c r="A324" s="18"/>
+      <c r="B324" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D324" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E324" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F324" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="11"/>
-      <c r="B325" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C325" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D325" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F325" s="13" t="s">
-        <v>13</v>
+      <c r="A325" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D325" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E325" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F325" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="11"/>
-      <c r="B326" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C326" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D326" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E326" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F326" s="13" t="s">
-        <v>13</v>
+      <c r="A326" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D326" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E326" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="13"/>
+      <c r="A327" s="11"/>
       <c r="B327" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="E327" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F327" s="13" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="13"/>
-      <c r="B328" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C328" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D328" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E328" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F328" s="13" t="s">
-        <v>13</v>
+      <c r="A328" s="18"/>
+      <c r="B328" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D328" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E328" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F328" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="13"/>
-      <c r="B329" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C329" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D329" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E329" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F329" s="13" t="s">
-        <v>13</v>
+      <c r="A329" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D329" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E329" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
-      <c r="B330" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C330" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="D330" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="E330" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F330" s="14" t="s">
-        <v>13</v>
+      <c r="A330" s="11"/>
+      <c r="B330" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D330" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="B331" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D331" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="E331" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F331" s="9" t="s">
+      <c r="A331" s="18"/>
+      <c r="B331" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C331" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D331" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E331" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F331" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D332" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E332" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F332" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="13"/>
-      <c r="B332" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C332" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D332" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E332" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F332" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="11"/>
       <c r="B333" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E333" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F333" s="13" t="s">
-        <v>399</v>
+        <v>241</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="18"/>
       <c r="B334" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="E334" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F334" s="14" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="B335" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D335" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="E335" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F335" s="7" t="s">
+      <c r="A335" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D335" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E335" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F335" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B336" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C336" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="E336" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F336" s="9" t="s">
+      <c r="A336" s="11"/>
+      <c r="B336" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C336" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D336" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E336" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F336" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="18"/>
+      <c r="B337" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C337" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D337" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E337" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F337" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B338" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C338" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D338" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E338" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F338" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="13"/>
-      <c r="B337" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C337" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D337" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="E337" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F337" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="13"/>
-      <c r="B338" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C338" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D338" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E338" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F338" s="13" t="s">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="11"/>
+      <c r="B339" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C339" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D339" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E339" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="18"/>
+      <c r="B340" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C340" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D340" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E340" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F340" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D341" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E341" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F341" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="11"/>
+      <c r="B342" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E342" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F342" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="18"/>
+      <c r="B343" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D343" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E343" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F343" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D344" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E344" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F344" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="11"/>
+      <c r="B345" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C345" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D345" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E345" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F345" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="18"/>
+      <c r="B346" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C346" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D346" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E346" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F346" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D347" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E347" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F347" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="11"/>
+      <c r="B348" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D348" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E348" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F348" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="18"/>
+      <c r="B349" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D349" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E349" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F349" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D350" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E350" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F350" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D351" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E351" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F351" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="13"/>
+      <c r="B352" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E352" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F352" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="13"/>
+      <c r="B353" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D353" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E353" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F353" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="14"/>
-      <c r="B339" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C339" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D339" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="E339" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F339" s="14" t="s">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="11"/>
+      <c r="B354" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C354" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D354" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E354" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F354" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="3"/>
-      <c r="B340" s="3"/>
-      <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
-      <c r="F340" s="3"/>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="11"/>
+      <c r="B355" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C355" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E355" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F355" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="11"/>
+      <c r="B356" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C356" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D356" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E356" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F356" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="13"/>
+      <c r="B357" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C357" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D357" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E357" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F357" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="13"/>
+      <c r="B358" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C358" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D358" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E358" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F358" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="13"/>
+      <c r="B359" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C359" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D359" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E359" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F359" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="14"/>
+      <c r="B360" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C360" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D360" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E360" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F360" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D361" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E361" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F361" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="13"/>
+      <c r="B362" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C362" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D362" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E362" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F362" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="11"/>
+      <c r="B363" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C363" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D363" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E363" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F363" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="18"/>
+      <c r="B364" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C364" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D364" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E364" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F364" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D365" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D366" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E366" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F366" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="13"/>
+      <c r="B367" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D367" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E367" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F367" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="13"/>
+      <c r="B368" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D368" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E368" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F368" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="14"/>
+      <c r="B369" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D369" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="E369" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F369" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+      <c r="F370" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/firmware/modules/common/PgpCardG3_RegisterMap.xlsx
+++ b/firmware/modules/common/PgpCardG3_RegisterMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="534">
   <si>
     <t>LLR</t>
   </si>
@@ -1224,12 +1224,6 @@
     <t xml:space="preserve">               BIT2  = EVR PLL Reset</t>
   </si>
   <si>
-    <t xml:space="preserve">               BIT[31:3]  = Reserverd for future use</t>
-  </si>
-  <si>
-    <t>0x17C:0x088</t>
-  </si>
-  <si>
     <t>0x180</t>
   </si>
   <si>
@@ -1524,9 +1518,6 @@
     <t>PgpOpCode</t>
   </si>
   <si>
-    <t>Send a 8-bit OP-Code to all PGP's side band channels</t>
-  </si>
-  <si>
     <t>debugReboot</t>
   </si>
   <si>
@@ -1537,6 +1528,96 @@
   </si>
   <si>
     <t>FPGA PROM reboot register</t>
+  </si>
+  <si>
+    <t>fiducialSync[0]</t>
+  </si>
+  <si>
+    <t>fiducialSync[1]</t>
+  </si>
+  <si>
+    <t>fiducialSync[2]</t>
+  </si>
+  <si>
+    <t>fiducialSync[3]</t>
+  </si>
+  <si>
+    <t>fiducialSync[4]</t>
+  </si>
+  <si>
+    <t>fiducialSync[5]</t>
+  </si>
+  <si>
+    <t>fiducialSync[6]</t>
+  </si>
+  <si>
+    <t>fiducialSync[7]</t>
+  </si>
+  <si>
+    <t>0x17C</t>
+  </si>
+  <si>
+    <t>0x178</t>
+  </si>
+  <si>
+    <t>0x174</t>
+  </si>
+  <si>
+    <t>0x170</t>
+  </si>
+  <si>
+    <t>0x16C</t>
+  </si>
+  <si>
+    <t>0x168</t>
+  </si>
+  <si>
+    <t>0x164</t>
+  </si>
+  <si>
+    <t>0x160</t>
+  </si>
+  <si>
+    <t>0x15C:0x088</t>
+  </si>
+  <si>
+    <t>EVR SYNC Fiducial Stop/Stop Detection Word, PGP.Lane7</t>
+  </si>
+  <si>
+    <t>EVR SYNC Fiducial Stop/Stop Detection Word, PGP.Lane0</t>
+  </si>
+  <si>
+    <t>EVR SYNC Fiducial Stop/Stop Detection Word, PGP.Lane1</t>
+  </si>
+  <si>
+    <t>EVR SYNC Fiducial Stop/Stop Detection Word, PGP.Lane6</t>
+  </si>
+  <si>
+    <t>EVR SYNC Fiducial Stop/Stop Detection Word, PGP.Lane5</t>
+  </si>
+  <si>
+    <t>EVR SYNC Fiducial Stop/Stop Detection Word, PGP.Lane4</t>
+  </si>
+  <si>
+    <t>EVR SYNC Fiducial Stop/Stop Detection Word, PGP.Lane3</t>
+  </si>
+  <si>
+    <t>EVR SYNC Fiducial Stop/Stop Detection Word, PGP.Lane2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               BIT[7:3]  = Reserverd for future use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               BIT[23:16]  = EVR Enable Lane, start/stop SYNC mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               BIT[15:8]    = EVR Enable Lane, free running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               BIT[31:24]  = Reserverd for future use</t>
+  </si>
+  <si>
+    <t>Send a 8-bit OP-Code to all PGP's side band channels (Debugging Feature)</t>
   </si>
 </sst>
 </file>
@@ -2045,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2137,7 @@
     <col min="1" max="1" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -2088,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>42145</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,16 +2450,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>12</v>
@@ -2389,16 +2470,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>12</v>
@@ -2415,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>49</v>
@@ -2844,13 +2925,13 @@
         <v>83</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>402</v>
+        <v>532</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2862,13 +2943,13 @@
         <v>83</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>401</v>
+        <v>530</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,13 +2961,13 @@
         <v>83</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,33 +2979,31 @@
         <v>83</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>399</v>
+        <v>529</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,10 +3012,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>6</v>
@@ -2951,10 +3030,10 @@
         <v>11</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>107</v>
+        <v>399</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>6</v>
@@ -2964,21 +3043,23 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="13" t="s">
+      <c r="A52" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>13</v>
+      <c r="D52" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2990,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>6</v>
@@ -3008,7 +3089,7 @@
         <v>78</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>6</v>
@@ -3026,7 +3107,7 @@
         <v>78</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>6</v>
@@ -3044,7 +3125,7 @@
         <v>78</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>6</v>
@@ -3062,7 +3143,7 @@
         <v>78</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>6</v>
@@ -3080,7 +3161,7 @@
         <v>78</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>6</v>
@@ -3098,7 +3179,7 @@
         <v>78</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>6</v>
@@ -3116,7 +3197,7 @@
         <v>78</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>6</v>
@@ -3134,7 +3215,7 @@
         <v>78</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>6</v>
@@ -3152,7 +3233,7 @@
         <v>78</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>6</v>
@@ -3170,7 +3251,7 @@
         <v>78</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>6</v>
@@ -3188,7 +3269,7 @@
         <v>78</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>6</v>
@@ -3206,7 +3287,7 @@
         <v>78</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>6</v>
@@ -3224,7 +3305,7 @@
         <v>78</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>6</v>
@@ -3242,7 +3323,7 @@
         <v>78</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>6</v>
@@ -3260,7 +3341,7 @@
         <v>78</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>6</v>
@@ -3278,7 +3359,7 @@
         <v>78</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>6</v>
@@ -3296,7 +3377,7 @@
         <v>78</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>6</v>
@@ -3314,7 +3395,7 @@
         <v>78</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>6</v>
@@ -3332,7 +3413,7 @@
         <v>78</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>6</v>
@@ -3350,7 +3431,7 @@
         <v>78</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>6</v>
@@ -3368,7 +3449,7 @@
         <v>78</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>6</v>
@@ -3386,7 +3467,7 @@
         <v>78</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>6</v>
@@ -3404,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>6</v>
@@ -3422,7 +3503,7 @@
         <v>78</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>6</v>
@@ -3440,7 +3521,7 @@
         <v>78</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>6</v>
@@ -3450,7 +3531,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="12" t="s">
         <v>11</v>
       </c>
@@ -3458,7 +3539,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>6</v>
@@ -3468,7 +3549,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
@@ -3476,7 +3557,7 @@
         <v>78</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>6</v>
@@ -3486,115 +3567,115 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="14" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="14" t="s">
+      <c r="E84" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="B85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D85" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="7" t="s">
+      <c r="E85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="17" t="s">
+      <c r="B86" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="9" t="s">
+      <c r="E86" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3606,7 +3687,7 @@
         <v>124</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>6</v>
@@ -3617,14 +3698,14 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
-      <c r="B88" s="12" t="s">
-        <v>11</v>
+      <c r="B88" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>6</v>
@@ -3635,14 +3716,14 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
-      <c r="B89" s="12" t="s">
-        <v>11</v>
+      <c r="B89" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>6</v>
@@ -3653,14 +3734,14 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
-      <c r="B90" s="12" t="s">
-        <v>11</v>
+      <c r="B90" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>6</v>
@@ -3670,7 +3751,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="12" t="s">
         <v>11</v>
       </c>
@@ -3678,7 +3759,7 @@
         <v>124</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>6</v>
@@ -3688,7 +3769,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="12" t="s">
         <v>11</v>
       </c>
@@ -3696,17 +3777,17 @@
         <v>124</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="12" t="s">
         <v>11</v>
       </c>
@@ -3714,359 +3795,353 @@
         <v>124</v>
       </c>
       <c r="D93" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="13" t="s">
+      <c r="E96" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="18" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D97" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E94" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="14" t="s">
+      <c r="E97" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="9" t="s">
+      <c r="B98" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D98" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="9" t="s">
+      <c r="E98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="13" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E96" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" s="13" t="s">
+      <c r="E99" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="13" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D100" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="13" t="s">
+      <c r="E100" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="14" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D101" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E98" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="14" t="s">
+      <c r="E101" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D99" s="19" t="s">
+      <c r="B102" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="7" t="s">
+      <c r="E102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>408</v>
+        <v>518</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>409</v>
+        <v>517</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="E105" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>410</v>
+        <v>516</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>412</v>
+        <v>515</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>413</v>
+        <v>514</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>415</v>
+        <v>512</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="E111" s="14" t="s">
         <v>6</v>
@@ -4077,16 +4152,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="E112" s="14" t="s">
         <v>6</v>
@@ -4097,16 +4172,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="E113" s="14" t="s">
         <v>6</v>
@@ -4117,16 +4192,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="E114" s="14" t="s">
         <v>6</v>
@@ -4137,16 +4212,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>6</v>
@@ -4157,236 +4232,236 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="E117" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="E118" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E127" s="14" t="s">
         <v>6</v>
@@ -4397,16 +4472,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>6</v>
@@ -4417,16 +4492,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>6</v>
@@ -4437,16 +4512,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>6</v>
@@ -4457,16 +4532,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>6</v>
@@ -4477,234 +4552,254 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>16</v>
+        <v>455</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>144</v>
+        <v>424</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>17</v>
+        <v>471</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="B133" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>17</v>
+      <c r="A133" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>17</v>
+      <c r="A134" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>17</v>
+      <c r="A135" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>17</v>
+      <c r="A136" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>17</v>
+      <c r="A137" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>17</v>
+      <c r="A138" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>17</v>
+      <c r="A139" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D140" s="18" t="s">
-        <v>150</v>
+      <c r="A140" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>479</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F140" s="14" t="s">
-        <v>17</v>
+      <c r="F140" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>16</v>
+        <v>464</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>146</v>
+        <v>433</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F141" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
-      <c r="B142" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
-      <c r="B143" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E144" s="13" t="s">
         <v>6</v>
@@ -4719,10 +4814,10 @@
         <v>16</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>6</v>
@@ -4737,10 +4832,10 @@
         <v>16</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E146" s="13" t="s">
         <v>6</v>
@@ -4755,10 +4850,10 @@
         <v>16</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E147" s="13" t="s">
         <v>6</v>
@@ -4773,10 +4868,10 @@
         <v>16</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E148" s="13" t="s">
         <v>6</v>
@@ -4786,89 +4881,89 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
-      <c r="B149" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149" s="14" t="s">
+      <c r="A149" s="11"/>
+      <c r="B149" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" s="14" t="s">
+      <c r="D152" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
-      <c r="B151" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
-      <c r="B152" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>6</v>
@@ -4883,10 +4978,10 @@
         <v>16</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E154" s="13" t="s">
         <v>6</v>
@@ -4901,10 +4996,10 @@
         <v>16</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E155" s="13" t="s">
         <v>6</v>
@@ -4919,10 +5014,10 @@
         <v>16</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E156" s="13" t="s">
         <v>6</v>
@@ -4937,10 +5032,10 @@
         <v>16</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>6</v>
@@ -4950,89 +5045,89 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
-      <c r="B158" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C158" s="14" t="s">
+      <c r="A158" s="11"/>
+      <c r="B158" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="18"/>
+      <c r="B160" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D158" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E158" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" s="14" t="s">
+      <c r="D161" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
-      <c r="B160" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E160" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F160" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
-      <c r="B161" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
+      <c r="A162" s="13"/>
       <c r="B162" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E162" s="13" t="s">
         <v>6</v>
@@ -5047,10 +5142,10 @@
         <v>16</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E163" s="13" t="s">
         <v>6</v>
@@ -5065,10 +5160,10 @@
         <v>16</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>6</v>
@@ -5083,10 +5178,10 @@
         <v>16</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E165" s="13" t="s">
         <v>6</v>
@@ -5101,10 +5196,10 @@
         <v>16</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E166" s="13" t="s">
         <v>6</v>
@@ -5114,89 +5209,89 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="18"/>
-      <c r="B167" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C167" s="14" t="s">
+      <c r="A167" s="11"/>
+      <c r="B167" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="11"/>
+      <c r="B168" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="18"/>
+      <c r="B169" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D167" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F167" s="14" t="s">
+      <c r="D170" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E171" s="13" t="s">
         <v>6</v>
@@ -5211,10 +5306,10 @@
         <v>16</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E172" s="13" t="s">
         <v>6</v>
@@ -5229,10 +5324,10 @@
         <v>16</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E173" s="13" t="s">
         <v>6</v>
@@ -5247,10 +5342,10 @@
         <v>16</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E174" s="13" t="s">
         <v>6</v>
@@ -5265,10 +5360,10 @@
         <v>16</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E175" s="13" t="s">
         <v>6</v>
@@ -5278,89 +5373,89 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
-      <c r="B176" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" s="14" t="s">
+      <c r="A176" s="11"/>
+      <c r="B176" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="18"/>
+      <c r="B178" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D176" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E176" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F176" s="14" t="s">
+      <c r="D179" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F177" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
-      <c r="B179" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E180" s="13" t="s">
         <v>6</v>
@@ -5375,10 +5470,10 @@
         <v>16</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E181" s="13" t="s">
         <v>6</v>
@@ -5393,10 +5488,10 @@
         <v>16</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E182" s="13" t="s">
         <v>6</v>
@@ -5411,10 +5506,10 @@
         <v>16</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E183" s="13" t="s">
         <v>6</v>
@@ -5429,10 +5524,10 @@
         <v>16</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E184" s="13" t="s">
         <v>6</v>
@@ -5442,89 +5537,89 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="18"/>
-      <c r="B185" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" s="14" t="s">
+      <c r="A185" s="11"/>
+      <c r="B185" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="11"/>
+      <c r="B186" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="18"/>
+      <c r="B187" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D185" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E185" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" s="14" t="s">
+      <c r="D188" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
-      <c r="B188" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E188" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
+      <c r="A189" s="13"/>
       <c r="B189" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E189" s="13" t="s">
         <v>6</v>
@@ -5539,10 +5634,10 @@
         <v>16</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E190" s="13" t="s">
         <v>6</v>
@@ -5557,10 +5652,10 @@
         <v>16</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E191" s="13" t="s">
         <v>6</v>
@@ -5575,10 +5670,10 @@
         <v>16</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E192" s="13" t="s">
         <v>6</v>
@@ -5593,10 +5688,10 @@
         <v>16</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E193" s="13" t="s">
         <v>6</v>
@@ -5606,89 +5701,89 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="18"/>
-      <c r="B194" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" s="14" t="s">
+      <c r="A194" s="11"/>
+      <c r="B194" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="11"/>
+      <c r="B195" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="18"/>
+      <c r="B196" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D194" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E194" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F194" s="14" t="s">
+      <c r="D197" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F195" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F196" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="11"/>
-      <c r="B197" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="11"/>
+      <c r="A198" s="13"/>
       <c r="B198" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E198" s="13" t="s">
         <v>6</v>
@@ -5703,10 +5798,10 @@
         <v>16</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E199" s="13" t="s">
         <v>6</v>
@@ -5721,10 +5816,10 @@
         <v>16</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E200" s="13" t="s">
         <v>6</v>
@@ -5739,10 +5834,10 @@
         <v>16</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E201" s="13" t="s">
         <v>6</v>
@@ -5757,10 +5852,10 @@
         <v>16</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E202" s="13" t="s">
         <v>6</v>
@@ -5770,305 +5865,299 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="18"/>
-      <c r="B203" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D203" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E203" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F203" s="14" t="s">
+      <c r="A203" s="11"/>
+      <c r="B203" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D204" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>10</v>
+      <c r="A204" s="11"/>
+      <c r="B204" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>10</v>
+      <c r="A205" s="18"/>
+      <c r="B205" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>14</v>
+        <v>155</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="11"/>
+      <c r="B208" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="11"/>
+      <c r="B209" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="11"/>
+      <c r="B210" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="11"/>
+      <c r="B211" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="11"/>
+      <c r="B212" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E212" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="11"/>
+      <c r="B213" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E213" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="18"/>
+      <c r="B214" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D214" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E214" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D215" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B217" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C217" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D207" s="11" t="s">
+      <c r="D217" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+      <c r="B218" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D218" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E207" s="13" t="s">
+      <c r="E218" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F207" s="13" t="s">
+      <c r="F218" s="13" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
-      <c r="B208" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E208" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
-      <c r="B210" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="13"/>
-      <c r="B211" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E211" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="13"/>
-      <c r="B213" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D213" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="13"/>
-      <c r="B214" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E215" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
-      <c r="B216" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E216" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="13"/>
-      <c r="B217" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E217" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E218" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6077,54 +6166,54 @@
         <v>14</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E219" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+      <c r="B221" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="13" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="13"/>
-      <c r="B220" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E220" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B221" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F221" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6133,54 +6222,54 @@
         <v>14</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E222" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F222" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+      <c r="B224" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" s="13" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
-      <c r="B223" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F223" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F224" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6189,54 +6278,54 @@
         <v>14</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E225" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F225" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="13"/>
+      <c r="B227" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="13" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="13"/>
-      <c r="B226" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D226" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E226" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F226" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B227" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D227" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E227" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F227" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,276 +6334,280 @@
         <v>14</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E228" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="13"/>
+      <c r="B230" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="13"/>
-      <c r="B229" s="13" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+      <c r="B231" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D229" s="11" t="s">
+      <c r="C231" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D231" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E229" s="13" t="s">
+      <c r="E231" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F229" s="13" t="s">
+      <c r="F231" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D230" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E230" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F230" s="7" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B231" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D231" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E231" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
-      <c r="B232" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E232" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F232" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F233" s="13" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>241</v>
+        <v>33</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
-      <c r="B235" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C235" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D235" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E235" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F235" s="14" t="s">
-        <v>242</v>
+      <c r="A235" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B236" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E236" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F236" s="9" t="s">
-        <v>10</v>
+      <c r="A236" s="13"/>
+      <c r="B236" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
       <c r="B237" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="13"/>
-      <c r="B238" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D238" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E238" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F238" s="13" t="s">
-        <v>13</v>
+      <c r="A238" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
       <c r="B239" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F239" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="14"/>
-      <c r="B240" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C240" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="D240" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E240" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" s="14" t="s">
-        <v>242</v>
+      <c r="A240" s="13"/>
+      <c r="B240" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B241" s="10" t="s">
+      <c r="A241" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D241" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B242" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C241" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E241" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F241" s="9" t="s">
+      <c r="C242" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="13"/>
-      <c r="B242" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E242" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F242" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6523,10 +6616,10 @@
         <v>16</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E243" s="13" t="s">
         <v>6</v>
@@ -6541,72 +6634,72 @@
         <v>16</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D244" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="13"/>
+      <c r="B245" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D245" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E244" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F244" s="13" t="s">
+      <c r="E245" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
-      <c r="B245" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C245" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D245" s="18" t="s">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="14"/>
+      <c r="B246" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D246" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E245" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245" s="14" t="s">
+      <c r="E246" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B246" s="10" t="s">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B247" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C246" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E246" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F246" s="9" t="s">
+      <c r="C247" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="13"/>
-      <c r="B247" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E247" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F247" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6615,10 +6708,10 @@
         <v>16</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E248" s="13" t="s">
         <v>6</v>
@@ -6633,72 +6726,72 @@
         <v>16</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D249" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="13"/>
+      <c r="B250" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D250" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E249" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F249" s="13" t="s">
+      <c r="E250" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
-      <c r="B250" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C250" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D250" s="18" t="s">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="14"/>
+      <c r="B251" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D251" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E250" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F250" s="14" t="s">
+      <c r="E251" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B251" s="10" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B252" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C251" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E251" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F251" s="9" t="s">
+      <c r="C252" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="13"/>
-      <c r="B252" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="D252" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E252" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F252" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6707,10 +6800,10 @@
         <v>16</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E253" s="13" t="s">
         <v>6</v>
@@ -6725,72 +6818,72 @@
         <v>16</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D254" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F254" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="13"/>
+      <c r="B255" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D255" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E254" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F254" s="13" t="s">
+      <c r="E255" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
-      <c r="B255" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C255" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D255" s="18" t="s">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="14"/>
+      <c r="B256" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D256" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E255" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F255" s="14" t="s">
+      <c r="E256" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F256" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B256" s="10" t="s">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B257" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C256" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D256" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E256" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F256" s="9" t="s">
+      <c r="C257" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
-      <c r="B257" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E257" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6799,10 +6892,10 @@
         <v>16</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E258" s="13" t="s">
         <v>6</v>
@@ -6817,72 +6910,72 @@
         <v>16</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D259" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="13"/>
+      <c r="B260" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D260" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E259" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" s="13" t="s">
+      <c r="E260" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
-      <c r="B260" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C260" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D260" s="18" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="14"/>
+      <c r="B261" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D261" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E260" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F260" s="14" t="s">
+      <c r="E261" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B261" s="10" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B262" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C261" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E261" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F261" s="9" t="s">
+      <c r="C262" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="13"/>
-      <c r="B262" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D262" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E262" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F262" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6891,10 +6984,10 @@
         <v>16</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E263" s="13" t="s">
         <v>6</v>
@@ -6909,72 +7002,72 @@
         <v>16</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D264" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F264" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+      <c r="B265" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D265" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E264" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F264" s="13" t="s">
+      <c r="E265" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="14"/>
-      <c r="B265" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C265" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="D265" s="18" t="s">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="14"/>
+      <c r="B266" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E265" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F265" s="14" t="s">
+      <c r="E266" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B266" s="10" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B267" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C266" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D266" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E266" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F266" s="9" t="s">
+      <c r="C267" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D267" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E267" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F267" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,10 +7076,10 @@
         <v>16</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E268" s="13" t="s">
         <v>6</v>
@@ -7001,68 +7094,66 @@
         <v>16</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D269" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="13"/>
+      <c r="B270" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D270" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E269" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F269" s="13" t="s">
+      <c r="E270" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F270" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
-      <c r="B270" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D270" s="18" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="14"/>
+      <c r="B271" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E270" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F270" s="14" t="s">
+      <c r="E271" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271" s="14" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D271" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E271" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="E272" s="9" t="s">
         <v>6</v>
@@ -7072,15 +7163,15 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="11"/>
-      <c r="B273" s="12" t="s">
-        <v>11</v>
+      <c r="A273" s="13"/>
+      <c r="B273" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C273" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E273" s="13" t="s">
         <v>6</v>
@@ -7090,73 +7181,71 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="11"/>
+      <c r="A274" s="13"/>
       <c r="B274" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E274" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F274" s="13" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="18"/>
-      <c r="B275" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C275" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E275" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F275" s="14" t="s">
-        <v>293</v>
+      <c r="A275" s="13"/>
+      <c r="B275" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F275" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D276" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E276" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F276" s="7" t="s">
-        <v>10</v>
+      <c r="A276" s="14"/>
+      <c r="B276" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E276" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" s="14" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>16</v>
+      <c r="A277" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="E277" s="9" t="s">
         <v>6</v>
@@ -7171,10 +7260,10 @@
         <v>16</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="E278" s="13" t="s">
         <v>6</v>
@@ -7189,10 +7278,10 @@
         <v>16</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="E279" s="13" t="s">
         <v>6</v>
@@ -7207,230 +7296,234 @@
         <v>16</v>
       </c>
       <c r="C280" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D280" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F280" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="14"/>
+      <c r="B281" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E281" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D282" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="11"/>
+      <c r="B284" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D284" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="11"/>
+      <c r="B285" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F285" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="18"/>
+      <c r="B286" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E286" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D287" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D280" s="11" t="s">
+      <c r="D288" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+      <c r="B289" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F289" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="13"/>
+      <c r="B290" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="13"/>
+      <c r="B291" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C291" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D291" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E280" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F280" s="13" t="s">
+      <c r="E291" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F291" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="13"/>
-      <c r="B281" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C281" s="13" t="s">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="13"/>
+      <c r="B292" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C292" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D281" s="11" t="s">
+      <c r="D292" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="E281" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F281" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="13"/>
-      <c r="B282" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D282" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E282" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F282" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="13"/>
-      <c r="B283" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C283" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E283" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F283" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="13"/>
-      <c r="B284" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D284" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E284" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F284" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="18"/>
-      <c r="B285" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C285" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D285" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E285" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F285" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D286" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="E286" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F286" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="11"/>
-      <c r="B287" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C287" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D287" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E287" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F287" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
-      <c r="B288" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D288" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E288" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F288" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="18"/>
-      <c r="B289" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C289" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D289" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E289" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F289" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C290" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D290" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E290" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F290" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="11"/>
-      <c r="B291" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C291" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="D291" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E291" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F291" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
-      <c r="B292" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C292" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="D292" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="E292" s="13" t="s">
         <v>6</v>
@@ -7440,283 +7533,281 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="18"/>
-      <c r="B293" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C293" s="14" t="s">
+      <c r="A293" s="13"/>
+      <c r="B293" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C293" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E293" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F293" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="13"/>
+      <c r="B294" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E294" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F294" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="13"/>
+      <c r="B295" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E295" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F295" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="18"/>
+      <c r="B296" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C296" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E296" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F296" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F297" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="11"/>
+      <c r="B298" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="11"/>
+      <c r="B299" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E299" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F299" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="18"/>
+      <c r="B300" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E300" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F300" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D293" s="18" t="s">
+      <c r="D301" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F301" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="11"/>
+      <c r="B302" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F302" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="11"/>
+      <c r="B303" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D303" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="18"/>
+      <c r="B304" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="E293" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F293" s="14" t="s">
+      <c r="E304" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F304" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="7" t="s">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B294" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C294" s="7" t="s">
+      <c r="B305" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C305" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D294" s="19" t="s">
+      <c r="D305" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E294" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F294" s="7" t="s">
+      <c r="E305" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F305" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="17" t="s">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B306" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C295" s="9" t="s">
+      <c r="C306" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D295" s="21" t="s">
+      <c r="D306" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E295" s="9" t="s">
+      <c r="E306" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F295" s="9" t="s">
+      <c r="F306" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="11"/>
-      <c r="B296" s="13" t="s">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="11"/>
+      <c r="B307" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="C307" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D296" s="11" t="s">
+      <c r="D307" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E296" s="13" t="s">
+      <c r="E307" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F296" s="13" t="s">
+      <c r="F307" s="13" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="11"/>
-      <c r="B297" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C297" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D297" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E297" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F297" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="18"/>
-      <c r="B298" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C298" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D298" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E298" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F298" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="D299" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E299" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F299" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="11"/>
-      <c r="B300" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D300" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E300" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F300" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
-      <c r="B301" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D301" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E301" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F301" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="18"/>
-      <c r="B302" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C302" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E302" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="B303" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C303" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D303" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="E303" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F303" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="11"/>
-      <c r="B304" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D304" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F304" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="11"/>
-      <c r="B305" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D305" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F305" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="18"/>
-      <c r="B306" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C306" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E306" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F306" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C307" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D307" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E307" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F307" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -7725,72 +7816,72 @@
         <v>14</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E308" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F308" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="18"/>
+      <c r="B309" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E309" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E310" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F310" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="11"/>
+      <c r="B311" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E311" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311" s="13" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="11"/>
-      <c r="B309" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C309" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="D309" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F309" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="18"/>
-      <c r="B310" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C310" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E310" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F310" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D311" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E311" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F311" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,72 +7890,72 @@
         <v>14</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E312" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F312" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="18"/>
+      <c r="B313" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D313" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E313" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F313" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E314" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F314" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="11"/>
+      <c r="B315" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D315" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E315" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F315" s="13" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="11"/>
-      <c r="B313" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D313" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F313" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="18"/>
-      <c r="B314" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C314" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E314" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F314" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="B315" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C315" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D315" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="E315" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F315" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7873,72 +7964,72 @@
         <v>14</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E316" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F316" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="18"/>
+      <c r="B317" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D317" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E317" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F317" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E318" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F318" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="11"/>
+      <c r="B319" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C319" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E319" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F319" s="13" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="11"/>
-      <c r="B317" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C317" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D317" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E317" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F317" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="18"/>
-      <c r="B318" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C318" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D318" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E318" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F318" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C319" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D319" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E319" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F319" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -7947,72 +8038,72 @@
         <v>14</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E320" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F320" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="18"/>
+      <c r="B321" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C321" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E321" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F321" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E322" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F322" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="11"/>
+      <c r="B323" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C323" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D323" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E323" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F323" s="13" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="11"/>
-      <c r="B321" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D321" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E321" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F321" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="18"/>
-      <c r="B322" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C322" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D322" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E322" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F322" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D323" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="E323" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F323" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -8021,148 +8112,146 @@
         <v>14</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E324" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F324" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="18"/>
+      <c r="B325" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C325" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D325" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E325" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F325" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D326" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E326" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="11"/>
+      <c r="B327" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C327" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D327" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E327" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F327" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="11"/>
-      <c r="B325" s="13" t="s">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="11"/>
+      <c r="B328" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C325" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D325" s="11" t="s">
+      <c r="C328" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D328" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E325" s="13" t="s">
+      <c r="E328" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F325" s="13" t="s">
+      <c r="F328" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="18"/>
-      <c r="B326" s="14" t="s">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="18"/>
+      <c r="B329" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C326" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D326" s="18" t="s">
+      <c r="C329" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D329" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="E326" s="14" t="s">
+      <c r="E329" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F326" s="14" t="s">
+      <c r="F329" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B327" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D327" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E327" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F327" s="7" t="s">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D330" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E330" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="B328" s="9" t="s">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="11"/>
+      <c r="B331" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C328" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D328" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E328" s="9" t="s">
+      <c r="C331" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D331" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E331" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F328" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="11"/>
-      <c r="B329" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C329" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D329" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E329" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F329" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="18"/>
-      <c r="B330" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C330" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D330" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E330" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F330" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="B331" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D331" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E331" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F331" s="9" t="s">
-        <v>10</v>
+      <c r="F331" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -8171,16 +8260,16 @@
         <v>14</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="E332" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F332" s="13" t="s">
-        <v>240</v>
+        <v>71</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -8189,30 +8278,30 @@
         <v>14</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D333" s="18" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="E333" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="17" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B334" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C334" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>12</v>
@@ -8227,660 +8316,662 @@
         <v>14</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="E335" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F335" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="11"/>
+      <c r="B336" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C336" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D336" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E336" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F336" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="18"/>
+      <c r="B337" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C337" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D337" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E337" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F337" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D338" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E338" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E339" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="11"/>
+      <c r="B340" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C340" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D340" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E340" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F340" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="18"/>
-      <c r="B336" s="14" t="s">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="18"/>
+      <c r="B341" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="C341" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D336" s="18" t="s">
+      <c r="D341" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E336" s="14" t="s">
+      <c r="E341" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F336" s="14" t="s">
+      <c r="F341" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="17" t="s">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D342" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E342" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F342" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="11"/>
+      <c r="B343" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D343" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E343" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F343" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="18"/>
+      <c r="B344" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C344" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D344" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E344" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F344" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D345" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E345" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F345" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="11"/>
+      <c r="B346" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C346" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D346" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E346" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F346" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="18"/>
+      <c r="B347" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D347" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E347" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F347" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="B348" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C337" s="9" t="s">
+      <c r="C348" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D337" s="21" t="s">
+      <c r="D348" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="E337" s="9" t="s">
+      <c r="E348" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F337" s="9" t="s">
+      <c r="F348" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="11"/>
-      <c r="B338" s="13" t="s">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="11"/>
+      <c r="B349" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C338" s="13" t="s">
+      <c r="C349" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="D338" s="11" t="s">
+      <c r="D349" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E338" s="13" t="s">
+      <c r="E349" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F338" s="13" t="s">
+      <c r="F349" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="18"/>
-      <c r="B339" s="14" t="s">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="18"/>
+      <c r="B350" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="C350" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D339" s="18" t="s">
+      <c r="D350" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E339" s="14" t="s">
+      <c r="E350" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F339" s="14" t="s">
+      <c r="F350" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="17" t="s">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B351" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C351" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D340" s="21" t="s">
+      <c r="D351" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="E340" s="9" t="s">
+      <c r="E351" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F340" s="9" t="s">
+      <c r="F351" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="11"/>
-      <c r="B341" s="13" t="s">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="11"/>
+      <c r="B352" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C341" s="13" t="s">
+      <c r="C352" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D341" s="11" t="s">
+      <c r="D352" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E341" s="13" t="s">
+      <c r="E352" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F341" s="13" t="s">
+      <c r="F352" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="18"/>
-      <c r="B342" s="14" t="s">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="18"/>
+      <c r="B353" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C342" s="14" t="s">
+      <c r="C353" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D342" s="18" t="s">
+      <c r="D353" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E342" s="14" t="s">
+      <c r="E353" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F342" s="14" t="s">
+      <c r="F353" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="17" t="s">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B354" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C343" s="9" t="s">
+      <c r="C354" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D343" s="21" t="s">
+      <c r="D354" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="E343" s="9" t="s">
+      <c r="E354" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F343" s="9" t="s">
+      <c r="F354" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="11"/>
-      <c r="B344" s="13" t="s">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="11"/>
+      <c r="B355" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C344" s="13" t="s">
+      <c r="C355" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D344" s="11" t="s">
+      <c r="D355" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E344" s="13" t="s">
+      <c r="E355" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F344" s="13" t="s">
+      <c r="F355" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="18"/>
-      <c r="B345" s="14" t="s">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="18"/>
+      <c r="B356" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C345" s="14" t="s">
+      <c r="C356" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="D345" s="18" t="s">
+      <c r="D356" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E345" s="14" t="s">
+      <c r="E356" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F345" s="14" t="s">
+      <c r="F356" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="17" t="s">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B357" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C346" s="9" t="s">
+      <c r="C357" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D346" s="21" t="s">
+      <c r="D357" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E346" s="9" t="s">
+      <c r="E357" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F346" s="9" t="s">
+      <c r="F357" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="11"/>
-      <c r="B347" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C347" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D347" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E347" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F347" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="18"/>
-      <c r="B348" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C348" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="D348" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E348" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F348" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C349" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D349" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="E349" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F349" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="11"/>
-      <c r="B350" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C350" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D350" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E350" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F350" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="18"/>
-      <c r="B351" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C351" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D351" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E351" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F351" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B352" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D352" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E352" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F352" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C353" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D353" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="E353" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F353" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="13"/>
-      <c r="B354" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C354" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D354" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="E354" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F354" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="13"/>
-      <c r="B355" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C355" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D355" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E355" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F355" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="11"/>
-      <c r="B356" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C356" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D356" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E356" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F356" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="11"/>
-      <c r="B357" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C357" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D357" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="E357" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F357" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="11"/>
       <c r="B358" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C358" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D358" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E358" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F358" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="18"/>
+      <c r="B359" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C359" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D359" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E359" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F359" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D360" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E360" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F360" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="11"/>
+      <c r="B361" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D361" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E361" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F361" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="18"/>
+      <c r="B362" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C362" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D362" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E362" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F362" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D363" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E363" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F363" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B364" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C364" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D358" s="11" t="s">
+      <c r="D364" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E364" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F364" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="13"/>
+      <c r="B365" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D365" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E365" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F365" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="13"/>
+      <c r="B366" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C366" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D366" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E366" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F366" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="11"/>
+      <c r="B367" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C367" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D367" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E367" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F367" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="11"/>
+      <c r="B368" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C368" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D368" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E368" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F368" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="11"/>
+      <c r="B369" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C369" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D369" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="E358" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F358" s="13" t="s">
+      <c r="E369" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F369" s="13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="13"/>
-      <c r="B359" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C359" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D359" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="E359" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F359" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="13"/>
-      <c r="B360" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C360" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D360" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E360" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F360" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="13"/>
-      <c r="B361" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C361" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D361" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E361" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F361" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
-      <c r="B362" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C362" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D362" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="E362" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F362" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="B363" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C363" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D363" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="E363" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F363" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="13"/>
-      <c r="B364" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C364" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D364" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E364" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F364" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="11"/>
-      <c r="B365" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C365" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D365" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E365" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F365" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="18"/>
-      <c r="B366" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C366" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D366" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E366" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F366" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="B367" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D367" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="E367" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F367" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="B368" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C368" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D368" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="E368" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F368" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="13"/>
-      <c r="B369" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C369" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D369" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E369" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F369" s="13" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="13"/>
-      <c r="B370" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C370" s="9" t="s">
-        <v>395</v>
+      <c r="B370" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>377</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E370" s="13" t="s">
         <v>6</v>
@@ -8890,30 +8981,234 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
-      <c r="B371" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C371" s="9" t="s">
+      <c r="A371" s="13"/>
+      <c r="B371" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D371" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E371" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F371" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="13"/>
+      <c r="B372" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D372" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E372" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F372" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="14"/>
+      <c r="B373" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C373" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D373" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="E373" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F373" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D374" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E374" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F374" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="13"/>
+      <c r="B375" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C375" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E375" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F375" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="11"/>
+      <c r="B376" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C376" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D376" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E376" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F376" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="18"/>
+      <c r="B377" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C377" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D377" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E377" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F377" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D378" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E378" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F378" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C379" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D371" s="18" t="s">
+      <c r="D379" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E379" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F379" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="13"/>
+      <c r="B380" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E380" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F380" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="13"/>
+      <c r="B381" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E381" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F381" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="14"/>
+      <c r="B382" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D382" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="E371" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F371" s="14" t="s">
+      <c r="E382" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F382" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="3"/>
-      <c r="B372" s="3"/>
-      <c r="C372" s="3"/>
-      <c r="D372" s="3"/>
-      <c r="E372" s="3"/>
-      <c r="F372" s="3"/>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="3"/>
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+      <c r="F383" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
